--- a/exploration/Model_Comparison.xlsx
+++ b/exploration/Model_Comparison.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>Model</t>
   </si>
@@ -117,6 +117,467 @@
   </si>
   <si>
     <t>What is the weather in Boston? Answer: The weather in Boston is cold and snowy.</t>
+  </si>
+  <si>
+    <t>llama3.1</t>
+  </si>
+  <si>
+    <t>A Convolutional Neural Network (CNN) is a type of deep learning model primarily used for image and signal processing tasks. It's designed to extract relevant features from data, particularly those with spatial hierarchies, such as images.
+**Key Components:**
+1. **Convolutional Layers**: These layers apply filters to the input data, scanning it in a sliding window fashion to detect local patterns. This process is called convolution.
+2. **Activation Functions**: Applied after each convolutional layer, activation functions introduce non-linearity into the model, allowing it to learn more complex features.
+3. **Pooling Layers**: Also known as downsampling or feature extraction layers, these reduce spatial dimensions while retaining relevant information.
+**How CNNs Work:**
+1. The input data (e.g., an image) is fed into the first convolutional layer.
+2. Filters are applied in a sliding window fashion to detect features at different scales and positions.
+3. Activated feature maps are created, highlighting areas of interest.
+4. Pooling layers reduce spatial dimensions while retaining relevant information.
+5. This process repeats with each subsequent convolutional and pooling layer, gradually increasing the abstraction level.
+6. Eventually, the output is passed through a fully connected (dense) layer for classification or regression.
+**Advantages:**
+1. **Efficient processing**: CNNs are particularly well-suited for image and signal data due to their ability to extract features using local connections.
+2. **Robustness**: By learning multiple feature scales, CNNs can tolerate some level of distortion and deformation in the input data.
+3. **Flexibility**: With pre-trained models available on various architectures and datasets, CNNs can be fine-tuned for new tasks.
+**Common Use Cases:**
+1. **Image classification**: Identifying objects, scenes, or actions within images (e.g., facial recognition).
+2. **Object detection**: Locating specific objects in images or videos.
+3. **Image segmentation**: Partitioning an image into its constituent parts (e.g., object, background).</t>
+  </si>
+  <si>
+    <t>A CNN (Convolutional Neural Network) is a type of deep learning model that's particularly well-suited for image and signal processing tasks.
+Here's how it works:
+**Basic Idea**: A CNN is designed to automatically learn spatial hierarchies of features from images or signals. This means that it can identify objects, edges, textures, and other visual properties within an image without needing explicit programming or feature engineering.
+**Key Components**:
+1. **Convolutional Layers**: These layers apply filters (small matrices) to small regions of the input data, scanning the entire image in a sliding window fashion. This helps capture local patterns and features.
+2. **Pooling Layers**: These layers reduce the spatial dimensions of the output from convolutional layers by selecting only the most important features, such as max pooling or average pooling.
+3. **Activation Functions**: Non-linear activation functions (e.g., ReLU, Sigmoid) introduce non-linearity to the model, allowing it to learn more complex relationships between inputs and outputs.
+**How CNNs Work**:
+1. Input images are fed into the network.
+2. Convolutional layers scan the image using filters to extract features.
+3. Pooling layers reduce the spatial dimensions of the output.
+4. Activation functions introduce non-linearity.
+5. The final output is a feature vector that represents the input image.
+**Advantages**:
+1. **Efficient**: CNNs can handle large images without requiring manual feature engineering or explicit programming.
+2. **Robust**: They can learn to recognize objects and features in various orientations, scales, and lighting conditions.
+CNNs have achieved state-of-the-art performance in many computer vision tasks, such as image classification, object detection, segmentation, and generation.
+If you'd like me to elaborate on any specific aspect or provide examples of CNN applications, feel free to ask!</t>
+  </si>
+  <si>
+    <t>A Random Forest (RF) is a popular machine learning algorithm that combines multiple decision trees to improve the accuracy and robustness of predictions. Developed by Leo Breiman in 2001, RF is an ensemble learning method that leverages the strengths of individual decision trees while mitigating their weaknesses.
+**How Random Forest Works**
+Here's a step-by-step explanation:
+1. **Decision Tree Creation**: Multiple decision trees are created using different subsets of the training data.
+2. **Bootstrap Sampling**: Each decision tree is trained on a randomly selected subset (called bootstrap sample) of the original dataset, with replacement.
+3. **Feature Randomization**: At each node in the decision tree, a random subset of features is considered for splitting, rather than all available features.
+4. **Voting Mechanism**: The predictions from each decision tree are combined using a voting mechanism. For classification problems, the class with the most votes wins. For regression problems, the average prediction value is used.
+**Advantages and Limitations**
+* Advantages:
+        + High accuracy and robustness due to ensemble nature
+        + Handles high-dimensional data well
+        + Can handle missing values and outliers
+* Limitations:
+        + Computationally expensive to train, especially for large datasets
+        + Hyperparameter tuning can be challenging
+**Common Use Cases**
+1. **Classification**: Image classification, text classification, sentiment analysis
+2. **Regression**: Predicting continuous values, such as house prices or stock prices
+3. **Feature Selection**: Identifying relevant features in a dataset
+**Practical Example**
+Suppose we want to predict customer churn using a Random Forest algorithm.
+* We create 10 decision trees, each trained on a different bootstrap sample of our dataset.
+* At each node, we randomly select a subset of features (e.g., age, income, purchase history).
+* The voting mechanism combines the predictions from each tree, and the class with the most votes is selected as the final prediction.
+By leveraging the strengths of individual decision trees and mitigating their weaknesses through ensemble learning, Random Forests have become a popular choice in machine learning for various applications.</t>
+  </si>
+  <si>
+    <t>Random Forest is an ensemble learning method that combines multiple decision trees to improve the accuracy and reliability of predictions. It's a powerful tool for classification, regression, and feature selection tasks.
+**How does it work?**
+Here are the key steps involved in creating a Random Forest:
+1. **Bootstrap Sampling**: The training data is randomly sampled with replacement, creating multiple subsets (called bootstrap samples) of the original dataset.
+2. **Decision Tree Creation**: A decision tree is trained on each bootstrap sample using a subset of the available predictors (features).
+3. **Bagging**: The outputs from all decision trees are combined using a voting mechanism (for classification tasks) or an averaging mechanism (for regression tasks). This process is called bagging.
+4. **Random Feature Selection**: At each split in each decision tree, a random subset of predictors is selected to determine the best feature for splitting.
+**Key components:**
+* **𝐵** (number of bootstrap samples): The number of times the training data is randomly sampled with replacement.
+* **𝐽** (number of predictors): The total number of features available in the dataset.
+* **𝑁** (number of trees): The number of decision trees created in the ensemble.
+**Advantages:**
+1. **Improved accuracy**: By combining multiple models, Random Forest reduces overfitting and improves overall performance.
+2. **Handling high-dimensional data**: Random Forest can handle a large number of predictors with ease.
+3. **Robustness to outliers**: The voting mechanism makes Random Forest robust to outliers in the data.
+**Limitations:**
+1. **Interpretability**: As mentioned in Document 2, Random Forest can be difficult to interpret due to the ensemble nature of the model.
+2. **Overfitting**: While bagging reduces overfitting, it's still possible for Random Forest to overfit if the number of trees is too high or the number of predictors is too low (as mentioned in Document 3).
+**Common use cases:**
+1. **Classification**: Image classification, sentiment analysis, and text classification.
+2. **Regression**: Predicting continuous outcomes like stock prices, temperatures, or energies.
+3. **Feature selection**: Selecting relevant features for downstream models.</t>
+  </si>
+  <si>
+    <t>LSTMs are a type of Recurrent Neural Network (RNN) architecture designed to handle the vanishing gradient problem in traditional RNNs. They are particularly useful for modeling sequential data, such as time series forecasting, speech recognition, and natural language processing.
+**How LSTMs work:**
+1. **Cell State**: LSTMs maintain a cell state that allows them to keep track of information over long periods.
+2. **Memory Cells**: Each memory cell is composed of three gates:
+        * **Input Gate**: controls the flow of new information into the cell
+        * **Forget Gate**: determines how much of the previous cell state to forget
+        * **Output Gate**: decides which parts of the cell state should be outputted as the final prediction
+3. **Recurrence**: The LSTM's output at time step `t` is computed based on the input at `t`, the hidden state at `t-1`, and the previous cell state.
+**Example:**
+Suppose we're building a language model to predict the next word in a sentence. We want it to remember words from earlier in the sentence to make accurate predictions. In an LSTM, this would be achieved by:
+* The input gate letting in new information (e.g., "the") at each time step
+* The forget gate forgetting previous words (e.g., "the" at `t-1`) when relevant (e.g., if it's not a critical part of the sentence)
+* The output gate deciding which parts of the cell state to use for prediction (e.g., using the word "and" from earlier in the sentence)
+**Advantages:**
+* Effective handling of long-term dependencies
+* Robustness against vanishing gradients
+**Limitations and Use Cases:**
+* LSTMs can be computationally expensive due to the three gates per cell.
+* They are particularly useful for sequential data with a fixed length, such as speech recognition or natural language processing.
+**Code Example:**
+```python
+import torch
+import torch.nn as nn
+class LSTM(nn.Module):
+    def __init__(self, input_size, hidden_size, num_layers=1):
+        super(LSTM, self).__init__()
+        self.lstm = nn.LSTM(input_size, hidden_size, num_layers)
+    def forward(self, x):
+        h0 = torch.zeros(self.num_layers, x.size(0), self.hidden_size).to(x.device)
+        c0 = torch.zeros(self.num_layers, x.size(0), self.hidden_size).to(x.device)
+        out, _ = self.lstm(x, (h0, c0))
+        return out
+```</t>
+  </si>
+  <si>
+    <t>An LSTM is a variant of Recurrent Neural Networks (RNNs) that was designed to address the limitations of traditional RNNs. In essence, an LSTM is a type of RNN that uses more powerful update features to learn and remember long-term dependencies in data.
+**Key Components of an LSTM:**
+1. **Long-term State**: The LSTM has a memory cell called the long-term state (denoted as `c(t)`), which stores information over time.
+2. **Forget Gate**: A forget gate is used to decide what information to discard from the long-term state, allowing the network to selectively "forget" irrelevant information.
+3. **Output Gate**: The output gate determines what information to read from the long-term state and use as the output (`y(t)`).
+**How LSTMs Work:**
+1. The LSTM cell receives an input at each time step (`t`).
+2. The forget gate decides what information to discard from the previous long-term state (`c(t-1)`) using element-wise multiplication.
+3. The new long-term state is updated based on the decision made by the forget gate and the current input.
+4. The output gate determines what information to read from the new long-term state and use as the output.
+**Advantages of LSTMs:**
+1. **Long-range memory**: LSTMs can learn and remember long-term dependencies in data, making them suitable for tasks like language modeling and machine translation.
+2. **Improved performance**: LSTMs have been shown to outperform traditional RNNs on many sequence-based tasks.
+**Common Use Cases:**
+1. Language Modeling
+2. Machine Translation
+3. Time Series Forecasting
+4. Speech Recognition
+In summary, an LSTM is a variant of RNNs that uses more powerful update features to learn and remember long-term dependencies in data. It has become a popular choice for many sequence-based tasks due to its ability to handle long-range memory and improve performance compared to traditional RNNs.</t>
+  </si>
+  <si>
+    <t>Reinforcement learning is a subfield of machine learning that focuses on training agents to make decisions in complex, dynamic environments. The goal of RL is to develop algorithms that can learn from trial and error by interacting with the environment and receiving feedback in the form of rewards or penalties.
+**Key Components:**
+1. **Agent**: An agent is an entity that interacts with the environment and makes decisions.
+2. **Environment**: The environment is the external world that the agent interacts with, which can be a physical space, a virtual world, or any other complex system.
+3. **Actions**: The actions are the decisions made by the agent to interact with the environment.
+4. **Rewards**: Rewards are numerical values assigned to each action taken by the agent. They represent the feedback from the environment, indicating whether the action was good (positive reward) or bad (negative reward).
+5. **Policy**: A policy is a mapping between states and actions, which defines the agent's behavior.
+**How RL Works:**
+1. The agent perceives the current state of the environment through observations.
+2. Based on the policy, the agent chooses an action to take in that state.
+3. The agent takes the action, and the environment responds with a new state and a reward signal.
+4. The agent updates its policy using the experience gathered from this interaction (trial and error).
+5. Steps 1-4 are repeated, allowing the agent to improve its decision-making over time.
+**Example:**
+Suppose we have an autonomous driving system that needs to learn how to navigate through a city. The agent is the self-driving car, the environment is the city streets, actions are steering and acceleration decisions, rewards are positive for reaching destinations on time and negative for accidents or traffic jams.
+**Advantages:**
+1. **Flexibility**: RL can handle complex, dynamic environments with unknown dynamics.
+2. **Efficiency**: RL learns from experience, reducing the need for explicit programming.
+**Limitations:**
+1. **Sample Efficiency**: RL requires many interactions with the environment to learn.
+2. **Exploration vs. Exploitation**: Agents must balance exploring new actions and exploiting known good policies.
+**Common Use Cases:**
+1. Robotics
+2. Autonomous vehicles
+3. Games (e.g., AlphaGo, Dota 2)
+4. Recommendation systems</t>
+  </si>
+  <si>
+    <t>Reinforcement learning (RL) is a type of machine learning where an agent learns to take actions in an environment to maximize a reward. It's a powerful technique for training autonomous systems, such as robots or self-driving cars.
+**Key Components:**
+1. **Agent**: The decision-making entity that takes actions in the environment.
+2. **Environment**: The external world that responds to the agent's actions with a new state and a reward signal.
+3. **Actions**: The decisions made by the agent, which can be movements, choices, or other types of interactions.
+4. **States**: The current situation or condition of the environment after an action is taken.
+5. **Reward**: A numerical value that indicates how good or bad an action was.
+**How Reinforcement Learning Works:**
+1. The environment provides a state to the agent at the beginning.
+2. The agent takes an action on the current state.
+3. The environment responds with a new state and a reward signal based on the action taken.
+4. The agent learns from the experience by updating its knowledge or policy.
+**Example: Training Walking Robots**
+In the example mentioned in Document 1, a walking robot is trained using reinforcement learning. Each step taken by the robot returns a positive reward (e.g., +10), while each fall returns a negative reward (e.g., -100). The goal is to maximize the cumulative reward over time.
+**Exploration-Exploitation Trade-off**
+Document 2 discusses the trade-off between exploration and exploitation. Exploration involves trying new actions or paths, while exploitation focuses on taking the best-known action to achieve a good outcome. The ε-greedy algorithm (see Document 2) is one way to balance these two approaches.
+**Common Use Cases:**
+Reinforcement learning has applications in various domains, including:
+* Robotics and autonomous systems
+* Game playing (e.g., Go, Poker)
+* Resource allocation and scheduling
+* Recommendation systems
+I hope this explanation helps you understand the basics of reinforcement learning!</t>
+  </si>
+  <si>
+    <t>Unfortunately, I'm a large language model, I don't have real-time access to current weather conditions. However, I can suggest some ways for you to find out the current weather in Boston:
+1. **Check online weather websites**: You can visit popular weather websites such as AccuWeather (accuweather.com), Weather.com (weather.com), or The Weather Channel (weather.com) and enter "Boston" in the search bar to get the current weather conditions.
+2. **Use a mobile app**: You can download a mobile app like Dark Sky (darksky.net) or Weather Underground (wunderground.com) that provides real-time weather updates for various locations, including Boston.
+3. **Check social media or news websites**: Many news outlets and social media platforms often post updates about the current weather in major cities, including Boston.
+If you'd like to get a historical perspective on the weather in Boston, I can provide some general information about the city's climate:
+Boston has a humid continental climate with cold winters and warm summers. The average temperature ranges from 24°F (-4°C) in January (the coldest month) to 82°F (28°C) in July (the warmest month). If you have any specific questions about Boston's climate or would like more information, feel free to ask!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Unfortunately, I'm a large language model, I don't have real-time access to current weather conditions. However, I can suggest a few ways for you to find out the current weather in Boston:
+1. **Check online weather websites**: You can visit websites like AccuWeather, Weather.com, or the National Weather Service (NWS) for up-to-date weather forecasts and current conditions.
+2. **Use a mobile app**: Download mobile apps like Dark Sky, Weather Underground, or The Weather Channel to get real-time weather updates on your phone.
+3. **Google search**: Simply type "Boston weather" in Google, and you'll get the latest forecast and current conditions.
+If you'd like, I can also provide some general information about Boston's climate and weather patterns if that's helpful!</t>
+  </si>
+  <si>
+    <t>gemma3</t>
+  </si>
+  <si>
+    <t>A Convolutional Neural Network (CNN) is a specialized type of neural network particularly well-suited for processing data that has a grid-like structure, such as images. They are widely used in computer vision tasks like image classification, object detection, and image segmentation, but can also be applied to other areas like natural language processing.
+**Key Components and How They Work**
+CNNs are built from layers that perform specific operations. Here's a breakdown of the core components:
+1.  **Convolutional Layer:**
+    *   **What it does:** This is the defining layer of a CNN. It applies a set of learnable filters (also called kernels) to the input data. These filters slide across the input, performing element-wise multiplication and summation. The result is a "feature map" that highlights specific patterns in the input.
+    *   **Example:** Imagine you have a filter designed to detect horizontal edges. When this filter slides across an image, it will produce a high value in areas where a horizontal edge is present.
+    *   **Parameters:**
+        *   *Kernel Size*: The size of the filter (e.g., 3x3, 5x5).
+        *   *Stride*: The number of pixels the filter shifts at each step.
+        *   *Padding*: Adding extra pixels (usually zeros) around the input to control the size of the output feature map.
+    *   **Advantages:** Parameter sharing (filters are used across the entire input) reduces the number of parameters to learn.
+    *   **Limitations:** Can be computationally expensive.
+2.  **ReLU (Rectified Linear Unit) Layer:**
+    *   **What it does:** This is an activation function applied element-wise to the output of the convolutional layer. It introduces non-linearity into the network, allowing it to learn more complex patterns. ReLU simply sets all negative values to zero.
+    *   **Example:** If a value in the feature map is -0.5, ReLU will change it to 0. If it's 1.2, it remains 1.2.
+    *   **Advantages:** Simple and computationally efficient.
+    *   **Limitations:** Can suffer from the "dying ReLU" problem (neurons get stuck outputting zero).
+3.  **Pooling Layer:**
+    *   **What it does:** This layer reduces the spatial dimensions (width and height) of the feature maps, reducing the number of parameters and computational cost. It also helps to make the network more robust to variations in the position of features in the input.
+    *   **Example:** Max pooling selects the maximum value within a defined window (e.g., 2x2) in the feature map.
+    *   **Types:** Max pooling (most common), average pooling.
+    *   **Advantages:** Reduces computational complexity and helps with translation invariance.
+    *   **Limitations:** Can lose some information.
+4.  **Fully Connected Layer:**
+    *   **What it does:** After several convolutional and pooling layers, the high-level features are fed into one or more fully connected layers. These layers are similar to those in a standard neural network and are used to perform the final classification or prediction.
+    *   **Example:** In an image classification task, the fully connected layers might output a probability score for each possible class (e.g., cat, dog, bird).
+**Typical CNN Architecture**
+A typical CNN architecture consists of multiple convolutional layers, ReLU activation functions, and pooling layers, followed by one or more fully connected layers.
+**Example Use Cases**
+*   **Image Classification:** Determining the object present in an image (e.g., classifying images of cats vs. dogs).
+*   **Object Detection:** Identifying and localizing multiple objects within an image (e.g., detecting cars, pedestrians, and traffic lights in a self-driving car).
+*   **Image Segmentation:** Dividing an image into regions corresponding to different objects or parts of objects.
+*   **Natural Language Processing:** Text classification, sentiment analysis.</t>
+  </si>
+  <si>
+    <t>A CNN (Convolutional Neural Network) is a type of neural network designed to process visual data. Key aspects include:
+*   **Convolutional Layers:** These layers transform inputs and discover the meaning/purpose of individual filters (Document 3).
+*   **Visualization Techniques:** CNN representations are moderately easy to visualize and understand, allowing for analysis of intermediate outputs, filters, and heatmaps of class activation (Document 3).
+*   **Architecture:** CNNs like VGG16 are structured into blocks containing convolutional layers (Document 4).
+*   **Adaptability:** By keeping only convolutional modules, CNN models can be adapted to arbitrary input sizes (Document 4).</t>
+  </si>
+  <si>
+    <t>gemma4</t>
+  </si>
+  <si>
+    <t>A Random Forest is a supervised machine learning algorithm used for both classification and regression tasks. It's a type of ensemble learning method, meaning it combines multiple individual models to produce a more accurate and robust prediction than any single model could achieve on its own. Specifically, a Random Forest is an ensemble of decision trees.
+**How Does it Work?**
+Here's a breakdown of the process:
+1.  **Bootstrap Sampling:**
+    *   The algorithm creates multiple (let's say *n*) bootstrap samples from the original training dataset. A bootstrap sample is a random sample drawn *with replacement*. This means some data points from the original dataset may appear multiple times in a single bootstrap sample, while others may be omitted.
+    *   *Example:* If your original dataset has 100 data points, each bootstrap sample will also contain 100 data points, but the specific combination of data points will vary for each sample.
+2.  **Decision Tree Training:**
+    *   For each bootstrap sample, a decision tree is trained.
+    *   **Random Feature Selection:**  A crucial element is that, at each node when splitting a tree, only a random subset of the available features is considered. This introduces more diversity among the trees.
+    *   *Example:* If you have 10 features, the algorithm might only consider 3 features when deciding how to split a node in a particular tree.
+3.  **Prediction Aggregation:**
+    *   **Classification:** For classification problems, the Random Forest takes a "majority vote" from all the individual decision trees. The class that receives the most votes is the predicted class.
+    *   **Regression:** For regression problems, the Random Forest averages the predictions of all the individual decision trees.
+**Why "Random"?**
+The "randomness" in Random Forests comes from two key aspects:
+*   **Bootstrap Sampling:** Creates diverse training sets.
+*   **Random Feature Selection:**  Prevents the trees from being highly correlated and encourages different trees to learn different aspects of the data.
+**Advantages of Random Forests:**
+*   **High Accuracy:** Generally provides very good predictive accuracy.
+*   **Handles High Dimensionality:** Works well with datasets containing many features.
+*   **Robust to Overfitting:** The averaging of multiple trees reduces the risk of overfitting, especially compared to individual decision trees.
+*   **Feature Importance:** Provides a measure of feature importance, indicating which features are most useful for making predictions.
+*   **Handles Missing Values:** Can handle missing data relatively well.
+**Limitations of Random Forests:**
+*   **Interpretability:**  Random Forests are less interpretable than single decision trees. It's harder to understand the exact reasoning behind a prediction because it's based on the combined output of many trees.
+*   **Training Time:** Can be slower to train than some other algorithms, especially with large datasets and many trees.
+*   **Bias towards Dominant Classes:** In classification tasks with imbalanced classes, Random Forests can be biased towards the majority class.
+**Common Use Cases:**
+*   **Image Classification:** Identifying objects in images.
+*   **Medical Diagnosis:** Predicting disease risk based on patient data.
+*   **Fraud Detection:** Identifying fraudulent transactions.
+*   **Customer Churn Prediction:** Predicting which customers are likely to stop using a service.
+*   **Financial Modeling:** Predicting stock prices or credit risk.</t>
+  </si>
+  <si>
+    <t>A Random Forest is an ensemble machine learning method that combines multiple decision trees to improve prediction accuracy and reduce overfitting. It builds upon the concept of "bagging" (Bootstrap Aggregating), but introduces an important randomization step.
+**How it Works:**
+1.  **Bootstrap Datasets:** Random Forests start by creating multiple bootstrapped datasets from the original training data. A bootstrapped dataset is a random sample of the original dataset, taken *with replacement*. This means some instances from the original dataset may appear multiple times in a bootstrapped dataset, while others may be omitted.
+2.  **Decision Tree Creation:** For each bootstrapped dataset, a decision tree is built. Importantly, when splitting nodes in these trees, a random subset of predictors (features) is considered at each split. This randomization helps to decorrelate the trees, which is key to the Random Forest's effectiveness.
+3.  **Prediction Aggregation:**  To make a prediction for a new instance, each tree in the forest makes its own prediction. The final prediction of the Random Forest is determined by aggregating the individual tree predictions. For classification, this is typically a majority vote. For regression, it's usually the average of the tree predictions.
+**Advantages and Limitations:**
+*   **Advantages:**
+    *   **Improved Accuracy:** Random Forests generally provide higher accuracy than individual decision trees or bagging alone.
+    *   **Reduced Overfitting:** The randomization and aggregation process helps to reduce overfitting.
+    *   **Feature Importance:** Random Forests can provide insights into the importance of different features in the dataset.
+*   **Limitations:**
+    *   **Interpretability:** As mentioned in Document 2, Random Forests are less interpretable than single decision trees. It's harder to trace the logic behind a prediction.
+    *   **Variance:** While better than bagging, Random Forests can still have high generalization error (Document 4).
+    *   **Inference Speed:** A large number of trees can slow down the prediction process (Document 4).
+    *   **Performance with Limited Relevant Predictors:** If the number of predictors is large but only a few are truly relevant, Random Forests can perform poorly (Document 1). This is because the random selection of predictors at each split may frequently miss the relevant ones.</t>
+  </si>
+  <si>
+    <t>gemma5</t>
+  </si>
+  <si>
+    <t>LSTMs introduce a more sophisticated memory mechanism to overcome the vanishing gradient problem. Here's the breakdown:
+*   **Cells:** Instead of a single hidden state like in a basic RNN, LSTMs have "cells." These cells act as memory units.
+*   **Gates:** Each cell has three gates that regulate the flow of information:
+    *   **Forget Gate:** Determines what information to discard from the cell state.
+    *   **Input Gate:** Determines what new information to store in the cell state.
+    *   **Output Gate:** Determines what information to output from the cell.
+**3. LSTM Architecture in Detail**
+Let's illustrate with a simplified example:
+*   **Input:** `x_t` (input at time step *t*)
+*   **Hidden State:** `h_t` (output of the LSTM cell at time step *t*)
+*   **Cell State:** `C_t` (the LSTM's memory)
+The equations governing an LSTM cell are:
+1.  **Forget Gate:**
+    `f_t = σ(W_f * [h_{t-1}, x_t] + b_f)`
+    *   `σ` is the sigmoid function (outputs values between 0 and 1).
+    *   `W_f` is the weight matrix for the forget gate.
+    *   `b_f` is the bias for the forget gate.
+    *   The output of the forget gate (between 0 and 1) determines how much of the previous cell state to keep.
+2.  **Input Gate:**
+    `i_t = σ(W_i * [h_{t-1}, x_t] + b_i)`
+    `~C_t = tanh(W_C * [h_{t-1}, x_t] + b_C)`
+    `C_t = f_t * C_{t-1} + i_t * ~C_t`
+    *   `i_t` determines which values to update.
+    *   `~C_t` is a candidate value for updating the cell state.
+    *   The cell state is updated based on the forget gate and the input gate.
+3.  **Output Gate:**
+    `o_t = σ(W_o * [h_{t-1}, x_t] + b_o)`
+    `h_t = o_t * tanh(C_t)`
+    *   `o_t` determines what parts of the cell state to output.
+    *   `h_t` is the output of the LSTM cell.
+**4. Advantages, Limitations, and Use Cases**
+*   **Advantages:**
+    *   Handles long-range dependencies effectively.
+    *   Mitigates the vanishing gradient problem.
+*   **Limitations:**
+    *   More complex than basic RNNs, leading to increased computational cost.
+    *   Can still struggle with extremely long sequences.
+*   **Use Cases:**
+    *   **Natural Language Processing (NLP):** Machine translation, text generation, sentiment analysis.
+    *   **Time Series Analysis:** Stock price prediction, weather forecasting.
+    *   **Speech Recognition:** Converting spoken language into text.
+    *   **Music Composition:** Generating musical sequences.</t>
+  </si>
+  <si>
+    <t>LSTM stands for Long Short-Term Memory. It's a type of recurrent neural network (RNN) architecture designed to address limitations of traditional RNNs.  The documents highlight that LSTMs have become the preferred choice in practice for sequence-based tasks.
+**Why are LSTMs used?**
+*   **Addressing RNN Limitations:** Traditional RNNs struggle with "long-range memory," meaning they have difficulty remembering information from earlier parts of a sequence when processing later parts. LSTMs were developed to overcome this issue.
+*   **Improved Performance:** LSTMs are more effective than standard RNNs due to their more powerful update features.
+*   **Handling Unstable Gradients:** LSTMs also help alleviate the problem of unstable gradients (exploding or vanishing gradients) that can occur during RNN training.
+**How do LSTMs work?**
+*   **Learnable Memory:** The core idea is that the network can learn what information to store in a "long-term state" (c(t)), what to discard, and what to use for output (y(t)).
+*   **Forget Gate:** As the long-term state traverses the network, it's initially affected by a "forget gate," which can decide to drop certain memories. This gate operates through element-wise multiplication.
+In essence, LSTMs provide a more robust and effective way to process sequential data compared to traditional RNNs.</t>
+  </si>
+  <si>
+    <t>gemma6</t>
+  </si>
+  <si>
+    <t>Reinforcement learning is a type of machine learning where an agent learns to make decisions in an environment to maximize a reward. Think of it like training a dog with treats – the dog (agent) performs actions, and you (the environment) give it a treat (reward) when it does something good. Over time, the dog learns which actions lead to the most treats.
+**Core Components**
+Here's a breakdown of the key elements involved:
+*   **Agent:** The learner or decision-maker. It interacts with the environment.
+*   **Environment:** The world the agent interacts with. It responds to the agent's actions.
+*   **State (s):** A representation of the environment at a specific point in time.
+*   **Action (a):** A move the agent can make within the environment.
+*   **Reward (r):** Feedback from the environment, indicating the desirability of an action.
+*   **Policy (π):** The strategy the agent uses to determine which action to take in a given state.  Essentially, it's a mapping from states to actions.
+*   **Value Function (V(s)):**  Estimates how good it is to be in a particular state. It considers future rewards as well.
+**How it Works: The Learning Loop**
+1.  **Observation:** The agent observes the current state of the environment.
+2.  **Action Selection:** Based on its current policy, the agent selects an action.
+3.  **Action Execution:** The agent executes the action in the environment.
+4.  **Reward &amp; Next State:** The environment provides a reward and transitions to a new state.
+5.  **Policy Update:** The agent uses the reward to update its policy, aiming to choose actions that lead to higher cumulative rewards.
+**Example: Training a Game-Playing Agent**
+Let's say you want to train an AI to play a video game.
+*   **Agent:** The AI player.
+*   **Environment:** The game itself (rules, physics, visuals).
+*   **State:** The current game screen (pixel data, player position, enemy positions).
+*   **Actions:**  Move up, down, left, right, jump, attack.
+*   **Reward:** +1 for collecting a coin, -1 for getting hit by an enemy, +100 for completing the level.
+*   **Policy:** Initially random. The agent might randomly move around.
+*   **Value Function:** Initially unknown. The agent needs to explore to learn how good each state is.
+Through trial and error, the agent learns which actions in which states lead to the most points.
+**Types of Reinforcement Learning**
+*   **Model-Based RL:** The agent tries to learn a model of the environment (how the environment will change in response to actions).
+*   **Model-Free RL:** The agent learns directly from experience, without trying to build a model.
+*   **Value-Based RL:** Focuses on learning the value function (how good it is to be in a given state). Q-learning is a common example.
+*   **Policy-Based RL:** Directly optimizes the policy (mapping from states to actions).
+**Advantages**
+*   Can solve complex sequential decision-making problems.
+*   Doesn't require labeled data.
+*   Can adapt to changing environments.
+**Limitations**
+*   Can be computationally expensive.
+*   Reward function design can be challenging.
+*   Can be prone to instability.
+**Common Use Cases**
+*   Game playing (e.g., AlphaGo)
+*   Robotics (e.g., robot navigation)
+*   Resource management (e.g., optimizing data center cooling)
+*   Finance (e.g., algorithmic trading)</t>
+  </si>
+  <si>
+    <t>Reinforcement learning is a training method where an agent learns to make decisions by interacting with an environment. Here's a breakdown:
+**Core Concept:**
+*   The environment provides a "state" to the agent.
+*   The agent takes an "action" based on that state.
+*   The environment then provides a new state and a "reward" to the agent.
+    *   **Positive Reward:** Encourages the agent to repeat the action in similar states.
+    *   **Negative Reward (Punishment):** Discourages the agent from repeating the action.
+**Practical Example:**
+Imagine training a robot to walk. Each successful step could be a positive reward, while falling would be a negative reward. Through this process, the robot learns which actions lead to rewards (staying upright) and avoids actions that lead to punishment (falling).
+**Connection to Markov Decision Processes:**
+Reinforcement learning can be formalized as a Markov Decision Process, which means the next state depends only on the current state and action, not on the history of previous states and actions.
+**Explore vs. Exploit:**
+A key challenge in reinforcement learning is the balance between "exploration" (trying new actions to discover better strategies) and "exploitation" (using the best known actions to maximize rewards).
+**ε-Greedy Algorithm:**
+One approach to manage exploration and exploitation is the ε-greedy algorithm. It chooses the best-known action most of the time (exploitation) but occasionally takes a random action (exploration) with a probability ε.</t>
+  </si>
+  <si>
+    <t>gemma7</t>
+  </si>
+  <si>
+    <t>I am an AI assistant specializing in machine learning, deep learning, and data science. Unfortunately, I do not have the functionality to provide real-time weather information. 
+To find the weather in Boston, I recommend using these resources:
+*   **Search engines:** Google, Bing, DuckDuckGo
+*   **Weather websites:** AccuWeather, The Weather Channel, Weather Underground
+*   **Weather apps:** Most smartphones have built-in weather apps</t>
+  </si>
+  <si>
+    <t>I am a machine learning AI assistant, and I do not have the ability to access real-time information, including weather data. To find out the weather in Boston, you can use these resources:
+*   **Weather websites:** AccuWeather, The Weather Channel, or Google Weather.
+*   **Weather apps:** Many weather apps are available for smartphones.
+*   **Voice assistants:** Ask Siri, Google Assistant, or Alexa.</t>
   </si>
 </sst>
 </file>
@@ -436,8 +897,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="15.0"/>
     <col customWidth="1" min="2" max="2" width="22.38"/>
-    <col customWidth="1" min="3" max="3" width="38.25"/>
-    <col customWidth="1" min="4" max="4" width="77.63"/>
+    <col customWidth="1" min="3" max="3" width="77.75"/>
+    <col customWidth="1" min="4" max="4" width="95.38"/>
     <col customWidth="1" min="5" max="6" width="11.5"/>
     <col customWidth="1" min="7" max="26" width="8.63"/>
   </cols>
@@ -610,48 +1071,148 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="A23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="C26" s="8"/>
